--- a/data/factors/factor8.xlsx
+++ b/data/factors/factor8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0803\data\factors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0808\data\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A440CA6B-BABB-46F7-BDE1-BCD9A24A3F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101A90FD-A016-44D7-BEB2-B03CEB1ED75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{274634E2-F470-4B6B-9247-2B6502557DA5}"/>
   </bookViews>
@@ -911,7 +911,7 @@
   <dimension ref="A1:A159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+      <selection activeCell="A115" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1716,7 +1716,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A159">
-    <sortCondition ref="A1:A159"/>
+    <sortCondition ref="A115:A159"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
